--- a/PayrollProject/templates/HMRCStudentLoanInputSheet.xlsx
+++ b/PayrollProject/templates/HMRCStudentLoanInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\Desktop\Latest provar zip file\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A3F93-60DE-4305-A0E5-24896E3C0C32}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B24BC1-BB31-401F-981C-1169F85DBF71}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="2" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="2" activeTab="3" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanAndPGLWeeklyPayPeriod" sheetId="1" r:id="rId1"/>
@@ -1877,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF4FF27-4FAF-4988-AA25-95F29F498AB5}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2346,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DB5334-09DC-4751-9904-A2C620CBB9C4}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PayrollProject/templates/HMRCStudentLoanInputSheet.xlsx
+++ b/PayrollProject/templates/HMRCStudentLoanInputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B24BC1-BB31-401F-981C-1169F85DBF71}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6AC39B-E807-45E6-AB1B-B7D4D9C4FEB3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="2" activeTab="3" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanAndPGLWeeklyPayPeriod" sheetId="1" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>SLWeeklyPlanAndPGL_Payroll</t>
   </si>
   <si>
-    <t>SLPandPGLWeekly_Payroll</t>
-  </si>
-  <si>
     <t>SLTwoWeeklyPlanAndPGL_Payroll</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>SLPandPGLMonthly_Report</t>
+  </si>
+  <si>
+    <t>SLPandPGLWeekly_Report</t>
   </si>
 </sst>
 </file>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -910,7 +910,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H3" s="9"/>
     </row>
@@ -934,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -958,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -982,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H6" s="9"/>
     </row>
@@ -1006,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -1030,7 +1030,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -1054,7 +1054,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H9" s="9"/>
     </row>
@@ -1078,7 +1078,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -1102,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -1126,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H12" s="9"/>
     </row>
@@ -1150,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H13" s="9"/>
     </row>
@@ -1174,7 +1174,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H14" s="9"/>
     </row>
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -1222,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -1246,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -1270,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -1294,7 +1294,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -1384,13 +1384,13 @@
         <v>23</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1407,13 +1407,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1430,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1453,13 +1453,13 @@
         <v>23</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1476,13 +1476,13 @@
         <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,13 +1522,13 @@
         <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1545,13 +1545,13 @@
         <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1568,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,13 +1591,13 @@
         <v>23</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1614,13 +1614,13 @@
         <v>23</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,13 @@
         <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1660,13 +1660,13 @@
         <v>23</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1683,18 +1683,18 @@
         <v>23</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -1706,18 +1706,18 @@
         <v>23</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -1729,18 +1729,18 @@
         <v>23</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -1752,18 +1752,18 @@
         <v>23</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -1775,18 +1775,18 @@
         <v>23</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
@@ -1798,18 +1798,18 @@
         <v>23</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
@@ -1821,18 +1821,18 @@
         <v>23</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -1844,13 +1844,13 @@
         <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1929,13 +1929,13 @@
         <v>31</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,13 +1952,13 @@
         <v>31</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,13 +1975,13 @@
         <v>31</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1998,13 +1998,13 @@
         <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,13 +2021,13 @@
         <v>31</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2044,13 +2044,13 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2067,13 +2067,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2090,13 +2090,13 @@
         <v>31</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2113,13 +2113,13 @@
         <v>31</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2136,13 +2136,13 @@
         <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2159,13 +2159,13 @@
         <v>31</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2182,18 +2182,18 @@
         <v>31</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -2205,18 +2205,18 @@
         <v>31</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -2228,18 +2228,18 @@
         <v>31</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -2251,18 +2251,18 @@
         <v>31</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -2274,18 +2274,18 @@
         <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -2297,18 +2297,18 @@
         <v>31</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -2320,13 +2320,13 @@
         <v>31</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2346,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DB5334-09DC-4751-9904-A2C620CBB9C4}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2398,13 +2398,13 @@
         <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2421,13 +2421,13 @@
         <v>40</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2444,13 +2444,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,13 +2467,13 @@
         <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2490,13 +2490,13 @@
         <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,13 +2513,13 @@
         <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2536,13 +2536,13 @@
         <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2559,13 +2559,13 @@
         <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2582,13 +2582,13 @@
         <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2605,13 +2605,13 @@
         <v>40</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,13 +2628,13 @@
         <v>40</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,13 +2651,13 @@
         <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2674,13 +2674,13 @@
         <v>40</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2697,18 +2697,18 @@
         <v>40</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -2720,18 +2720,18 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -2743,18 +2743,18 @@
         <v>40</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -2766,18 +2766,18 @@
         <v>40</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -2789,18 +2789,18 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
@@ -2812,18 +2812,18 @@
         <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
@@ -2835,18 +2835,18 @@
         <v>40</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -2858,13 +2858,13 @@
         <v>40</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
